--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.9696371849955</v>
+        <v>172.127838452717</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.8808767378929</v>
+        <v>235.5129023151934</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.4725965720937</v>
+        <v>213.0358814627338</v>
       </c>
       <c r="AD2" t="n">
-        <v>140969.6371849955</v>
+        <v>172127.838452717</v>
       </c>
       <c r="AE2" t="n">
-        <v>192880.8767378929</v>
+        <v>235512.9023151934</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.343478510979317e-06</v>
+        <v>5.652316313512653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.060956790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>174472.5965720937</v>
+        <v>213035.8814627338</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.36821686010161</v>
+        <v>110.1119339232424</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.2775369554107</v>
+        <v>150.6600057893946</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.6075404460193</v>
+        <v>136.281226289542</v>
       </c>
       <c r="AD3" t="n">
-        <v>89368.21686010162</v>
+        <v>110111.9339232424</v>
       </c>
       <c r="AE3" t="n">
-        <v>122277.5369554107</v>
+        <v>150660.0057893946</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.528398514194927e-06</v>
+        <v>7.655482370177788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.475308641975309</v>
       </c>
       <c r="AH3" t="n">
-        <v>110607.5404460193</v>
+        <v>136281.226289542</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.43971400543425</v>
+        <v>107.1834310685751</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.2706301532291</v>
+        <v>146.653098987213</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.9830472053076</v>
+        <v>132.6567330488303</v>
       </c>
       <c r="AD4" t="n">
-        <v>86439.71400543426</v>
+        <v>107183.4310685751</v>
       </c>
       <c r="AE4" t="n">
-        <v>118270.6301532291</v>
+        <v>146653.098987213</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.688001913262928e-06</v>
+        <v>7.925299835216583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.320987654320987</v>
       </c>
       <c r="AH4" t="n">
-        <v>106983.0472053076</v>
+        <v>132656.7330488304</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.4535981752953</v>
+        <v>128.6348233715664</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.3909976584447</v>
+        <v>176.0038403047881</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.2287691100364</v>
+        <v>159.2062808090895</v>
       </c>
       <c r="AD2" t="n">
-        <v>108453.5981752953</v>
+        <v>128634.8233715664</v>
       </c>
       <c r="AE2" t="n">
-        <v>148390.9976584447</v>
+        <v>176003.8403047881</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.993601769923435e-06</v>
+        <v>6.916083632621976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.246913580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>134228.7691100364</v>
+        <v>159206.2808090895</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.48569320655699</v>
+        <v>102.5815775482564</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.8605644571216</v>
+        <v>140.3566399812673</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.08931058616</v>
+        <v>126.9611992532743</v>
       </c>
       <c r="AD3" t="n">
-        <v>82485.69320655699</v>
+        <v>102581.5775482564</v>
       </c>
       <c r="AE3" t="n">
-        <v>112860.5644571216</v>
+        <v>140356.6399812672</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.808979562011413e-06</v>
+        <v>8.328147560661355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.359567901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>102089.31058616</v>
+        <v>126961.1992532743</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.56418963646057</v>
+        <v>100.8249456200347</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.6537696835624</v>
+        <v>137.9531386799443</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.04751517344134</v>
+        <v>124.7870847428136</v>
       </c>
       <c r="AD2" t="n">
-        <v>73564.18963646056</v>
+        <v>100824.9456200347</v>
       </c>
       <c r="AE2" t="n">
-        <v>100653.7696835624</v>
+        <v>137953.1386799443</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.929083251095341e-06</v>
+        <v>9.326886199114805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.74537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>91047.51517344134</v>
+        <v>124787.0847428136</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.98696759473967</v>
+        <v>94.89497780666373</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.9687213714981</v>
+        <v>129.839495105978</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.04609252484542</v>
+        <v>117.4477959239738</v>
       </c>
       <c r="AD2" t="n">
-        <v>75986.96759473966</v>
+        <v>94894.97780666374</v>
       </c>
       <c r="AE2" t="n">
-        <v>103968.7213714981</v>
+        <v>129839.495105978</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.987329096355731e-06</v>
+        <v>9.085830491460484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.486882716049383</v>
       </c>
       <c r="AH2" t="n">
-        <v>94046.09252484542</v>
+        <v>117447.7959239738</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.29135306529594</v>
+        <v>95.19936327722</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.3851950008522</v>
+        <v>130.2559687353321</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.42281849553852</v>
+        <v>117.8245218946669</v>
       </c>
       <c r="AD3" t="n">
-        <v>76291.35306529593</v>
+        <v>95199.36327722001</v>
       </c>
       <c r="AE3" t="n">
-        <v>104385.1950008522</v>
+        <v>130255.9687353321</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.987097108677835e-06</v>
+        <v>9.085407860293231e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.486882716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>94422.81849553852</v>
+        <v>117824.5218946669</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.15795263733399</v>
+        <v>98.76334208001944</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.0438912345317</v>
+        <v>135.1323617649677</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.4460181062167</v>
+        <v>122.2355188176163</v>
       </c>
       <c r="AD2" t="n">
-        <v>81157.95263733399</v>
+        <v>98763.34208001944</v>
       </c>
       <c r="AE2" t="n">
-        <v>111043.8912345317</v>
+        <v>135132.3617649677</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.747912070907325e-06</v>
+        <v>9.304377879488659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.11574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>100446.0181062167</v>
+        <v>122235.5188176162</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.5999906356648</v>
+        <v>143.9565179051204</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.4325188655301</v>
+        <v>196.9676587110432</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.5982574159569</v>
+        <v>178.1693418095623</v>
       </c>
       <c r="AD2" t="n">
-        <v>113599.9906356648</v>
+        <v>143956.5179051204</v>
       </c>
       <c r="AE2" t="n">
-        <v>155432.5188655301</v>
+        <v>196967.6587110432</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.815316750184642e-06</v>
+        <v>6.564180768548802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.443672839506173</v>
       </c>
       <c r="AH2" t="n">
-        <v>140598.2574159569</v>
+        <v>178169.3418095623</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.33349060771189</v>
+        <v>103.5996522417232</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.0205582635627</v>
+        <v>141.7496146911534</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.1385962117763</v>
+        <v>128.2212304119017</v>
       </c>
       <c r="AD3" t="n">
-        <v>83333.49060771189</v>
+        <v>103599.6522417232</v>
       </c>
       <c r="AE3" t="n">
-        <v>114020.5582635628</v>
+        <v>141749.6146911534</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.788986532442256e-06</v>
+        <v>8.239361331028503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.33641975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>103138.5962117763</v>
+        <v>128221.2304119017</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.54311588180578</v>
+        <v>103.8092775158171</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.3073768115922</v>
+        <v>142.0364332391829</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.3980412001343</v>
+        <v>128.4806754002597</v>
       </c>
       <c r="AD4" t="n">
-        <v>83543.11588180577</v>
+        <v>103809.2775158171</v>
       </c>
       <c r="AE4" t="n">
-        <v>114307.3768115922</v>
+        <v>142036.4332391829</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.786832872229344e-06</v>
+        <v>8.235655999105299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>103398.0412001343</v>
+        <v>128480.6754002597</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.6199317141788</v>
+        <v>106.3017659623501</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.3077472716632</v>
+        <v>145.4467658925573</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.78013068997956</v>
+        <v>131.5655306916291</v>
       </c>
       <c r="AD2" t="n">
-        <v>80619.93171417881</v>
+        <v>106301.7659623501</v>
       </c>
       <c r="AE2" t="n">
-        <v>110307.7472716632</v>
+        <v>145446.7658925573</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.574574458208626e-06</v>
+        <v>9.170468156205292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.435956790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>99780.13068997956</v>
+        <v>131565.5306916291</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.90694502464763</v>
+        <v>114.2643594030205</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.1734280127229</v>
+        <v>156.3415375229072</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.085999093649</v>
+        <v>141.4205206084899</v>
       </c>
       <c r="AD2" t="n">
-        <v>84906.94502464763</v>
+        <v>114264.3594030205</v>
       </c>
       <c r="AE2" t="n">
-        <v>116173.4280127229</v>
+        <v>156341.5375229072</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.550086696760553e-06</v>
+        <v>8.058541642799522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.74537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>105085.999093649</v>
+        <v>141420.5206084899</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.26601124546612</v>
+        <v>98.80926338807517</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.455253555616</v>
+        <v>135.1951933245547</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.10443637419999</v>
+        <v>122.2923538213409</v>
       </c>
       <c r="AD3" t="n">
-        <v>79266.01124546611</v>
+        <v>98809.26338807517</v>
       </c>
       <c r="AE3" t="n">
-        <v>108455.253555616</v>
+        <v>135195.1933245547</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.924344006193186e-06</v>
+        <v>8.721379147705134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.386574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>98104.4363742</v>
+        <v>122292.3538213409</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.1134487213157</v>
+        <v>124.1179216175177</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.4526137016324</v>
+        <v>169.8236160532603</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.8571361834861</v>
+        <v>153.6158884861264</v>
       </c>
       <c r="AD2" t="n">
-        <v>104113.4487213157</v>
+        <v>124117.9216175177</v>
       </c>
       <c r="AE2" t="n">
-        <v>142452.6137016324</v>
+        <v>169823.6160532603</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.151920689900961e-06</v>
+        <v>7.240587140776075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.096450617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>128857.1361834861</v>
+        <v>153615.8884861264</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.35146804769951</v>
+        <v>101.2706000893299</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.3086675562911</v>
+        <v>138.5629027857214</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.6855245474433</v>
+        <v>125.3386538181448</v>
       </c>
       <c r="AD3" t="n">
-        <v>81351.46804769951</v>
+        <v>101270.6000893299</v>
       </c>
       <c r="AE3" t="n">
-        <v>111308.6675562911</v>
+        <v>138562.9027857214</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.85158585384731e-06</v>
+        <v>8.460742092493077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.359567901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>100685.5245474433</v>
+        <v>125338.6538181448</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.6841114566648</v>
+        <v>155.6963874282125</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.5983019697138</v>
+        <v>213.0306661190196</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.3166394659924</v>
+        <v>192.6993183350991</v>
       </c>
       <c r="AD2" t="n">
-        <v>124684.1114566648</v>
+        <v>155696.3874282125</v>
       </c>
       <c r="AE2" t="n">
-        <v>170598.3019697138</v>
+        <v>213030.6661190196</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.490376175295884e-06</v>
+        <v>5.933408168509579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.852623456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>154316.6394659923</v>
+        <v>192699.3183350991</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.4130525438339</v>
+        <v>107.0026518455117</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.2341507652468</v>
+        <v>146.4057488788015</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.9500493589152</v>
+        <v>132.4329896876075</v>
       </c>
       <c r="AD3" t="n">
-        <v>86413.0525438339</v>
+        <v>107002.6518455117</v>
       </c>
       <c r="AE3" t="n">
-        <v>118234.1507652468</v>
+        <v>146405.7488788015</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.659358122164428e-06</v>
+        <v>7.920600002295825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.382716049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>106950.0493589152</v>
+        <v>132432.9896876074</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.54668022218317</v>
+        <v>106.136279523861</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.0487419331156</v>
+        <v>145.2203400466703</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.8777742819905</v>
+        <v>131.3607146106827</v>
       </c>
       <c r="AD4" t="n">
-        <v>85546.68022218317</v>
+        <v>106136.279523861</v>
       </c>
       <c r="AE4" t="n">
-        <v>117048.7419331156</v>
+        <v>145220.3400466703</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.706896650752778e-06</v>
+        <v>8.001412350214494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>105877.7742819905</v>
+        <v>131360.7146106827</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.14480906920092</v>
+        <v>97.44644264608027</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.9211752741017</v>
+        <v>133.3305218619503</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.71676837078054</v>
+        <v>120.6056439860441</v>
       </c>
       <c r="AD2" t="n">
-        <v>78144.80906920091</v>
+        <v>97446.44264608026</v>
       </c>
       <c r="AE2" t="n">
-        <v>106921.1752741017</v>
+        <v>133330.5218619503</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.889402606763845e-06</v>
+        <v>8.816749927946778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.517746913580248</v>
       </c>
       <c r="AH2" t="n">
-        <v>96716.76837078054</v>
+        <v>120605.6439860441</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.95549975276305</v>
+        <v>96.08654112905019</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.2939097987282</v>
+        <v>131.46984461173</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.24480682849476</v>
+        <v>118.9225471611073</v>
       </c>
       <c r="AD3" t="n">
-        <v>76955.49975276305</v>
+        <v>96086.54112905019</v>
       </c>
       <c r="AE3" t="n">
-        <v>105293.9097987282</v>
+        <v>131469.84461173</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.987221585274062e-06</v>
+        <v>8.993140694078145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.429012345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>95244.80682849477</v>
+        <v>118922.5471611073</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.37987365802155</v>
+        <v>102.0496943018783</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7698245473008</v>
+        <v>139.6288938585404</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.05705532737781</v>
+        <v>126.3029081991021</v>
       </c>
       <c r="AD2" t="n">
-        <v>74379.87365802155</v>
+        <v>102049.6943018783</v>
       </c>
       <c r="AE2" t="n">
-        <v>101769.8245473008</v>
+        <v>139628.8938585403</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.959086417984511e-06</v>
+        <v>9.252070119999021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.641203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>92057.05532737781</v>
+        <v>126302.9081991022</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.82112759380944</v>
+        <v>99.63625467871555</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.63707941522388</v>
+        <v>136.3267192926891</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.12785639737899</v>
+        <v>123.3158885391836</v>
       </c>
       <c r="AD2" t="n">
-        <v>72821.12759380943</v>
+        <v>99636.25467871554</v>
       </c>
       <c r="AE2" t="n">
-        <v>99637.07941522388</v>
+        <v>136326.7192926891</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.860322915546132e-06</v>
+        <v>9.34658120490378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.899691358024691</v>
       </c>
       <c r="AH2" t="n">
-        <v>90127.85639737899</v>
+        <v>123315.8885391836</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.64432136902374</v>
+        <v>114.7652702733107</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.655315325389</v>
+        <v>157.0269058742659</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.9492641785823</v>
+        <v>142.0404783663157</v>
       </c>
       <c r="AD2" t="n">
-        <v>89644.32136902375</v>
+        <v>114765.2702733107</v>
       </c>
       <c r="AE2" t="n">
-        <v>122655.315325389</v>
+        <v>157026.9058742659</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.227892902076781e-06</v>
+        <v>8.720449030617923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.045524691358025</v>
       </c>
       <c r="AH2" t="n">
-        <v>110949.2641785823</v>
+        <v>142040.4783663157</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.39059560456029</v>
+        <v>119.0359326605504</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.3081565408595</v>
+        <v>162.8702145608117</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.6352377412078</v>
+        <v>147.3261098729546</v>
       </c>
       <c r="AD2" t="n">
-        <v>89390.59560456029</v>
+        <v>119035.9326605504</v>
       </c>
       <c r="AE2" t="n">
-        <v>122308.1565408595</v>
+        <v>162870.2145608117</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.347029273206581e-06</v>
+        <v>7.637558952388113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.915123456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>110635.2377412078</v>
+        <v>147326.1098729546</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.25508052525687</v>
+        <v>99.9902811196108</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.808541778882</v>
+        <v>136.811113887666</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.32856866878996</v>
+        <v>123.7540531938681</v>
       </c>
       <c r="AD3" t="n">
-        <v>80255.08052525687</v>
+        <v>99990.28111961079</v>
       </c>
       <c r="AE3" t="n">
-        <v>109808.541778882</v>
+        <v>136811.113887666</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.899852456684354e-06</v>
+        <v>8.608847478113602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.359567901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>99328.56866878996</v>
+        <v>123754.0531938681</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.5322894910339</v>
+        <v>149.3060098082801</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.181107757111</v>
+        <v>204.2870695358691</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.7027704554314</v>
+        <v>184.7901983381268</v>
       </c>
       <c r="AD2" t="n">
-        <v>118532.2894910339</v>
+        <v>149306.0098082801</v>
       </c>
       <c r="AE2" t="n">
-        <v>162181.107757111</v>
+        <v>204287.0695358691</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.66134206766931e-06</v>
+        <v>6.260486906983675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>146702.7704554314</v>
+        <v>184790.1983381268</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.66927102317092</v>
+        <v>105.0998332219812</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.8482319584657</v>
+        <v>143.8022284916552</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.7918392943945</v>
+        <v>130.0779456321458</v>
       </c>
       <c r="AD3" t="n">
-        <v>84669.27102317092</v>
+        <v>105099.8332219812</v>
       </c>
       <c r="AE3" t="n">
-        <v>115848.2319584657</v>
+        <v>143802.2284916552</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.732863246034043e-06</v>
+        <v>8.092668709100398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.351851851851851</v>
       </c>
       <c r="AH3" t="n">
-        <v>104791.8392943945</v>
+        <v>130077.9456321458</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.49536165426169</v>
+        <v>104.9259238530719</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.6102814875843</v>
+        <v>143.5642780207738</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.5765984824884</v>
+        <v>129.8627048202397</v>
       </c>
       <c r="AD4" t="n">
-        <v>84495.36165426168</v>
+        <v>104925.9238530719</v>
       </c>
       <c r="AE4" t="n">
-        <v>115610.2814875843</v>
+        <v>143564.2780207738</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.751812634213753e-06</v>
+        <v>8.12507005112249e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.332561728395062</v>
       </c>
       <c r="AH4" t="n">
-        <v>104576.5984824883</v>
+        <v>129862.7048202397</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.3193058436072</v>
+        <v>132.7004275100036</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.261300030584</v>
+        <v>181.566579248791</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.1612742031464</v>
+        <v>164.2381197556317</v>
       </c>
       <c r="AD2" t="n">
-        <v>100319.3058436072</v>
+        <v>132700.4275100036</v>
       </c>
       <c r="AE2" t="n">
-        <v>137261.300030584</v>
+        <v>181566.579248791</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.57921290901259e-06</v>
+        <v>7.671901815339259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.391975308641976</v>
       </c>
       <c r="AH2" t="n">
-        <v>124161.2742031464</v>
+        <v>164238.1197556317</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.3918912691467</v>
+        <v>94.23372007387685</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1545116899076</v>
+        <v>128.9347331033471</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.30958987251518</v>
+        <v>116.6293831370323</v>
       </c>
       <c r="AD2" t="n">
-        <v>75391.8912691467</v>
+        <v>94233.72007387686</v>
       </c>
       <c r="AE2" t="n">
-        <v>103154.5116899076</v>
+        <v>128934.7331033471</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.96516792834893e-06</v>
+        <v>9.147986933445129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.567901234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>93309.58987251518</v>
+        <v>116629.3831370323</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.7687382515504</v>
+        <v>100.2816075879265</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.5113509409761</v>
+        <v>137.2097196140321</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.96430271085279</v>
+        <v>124.1146165491566</v>
       </c>
       <c r="AD2" t="n">
-        <v>80768.7382515504</v>
+        <v>100281.6075879265</v>
       </c>
       <c r="AE2" t="n">
-        <v>110511.3509409761</v>
+        <v>137209.719614032</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.76969502996773e-06</v>
+        <v>8.520712086895198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.579475308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>99964.30271085279</v>
+        <v>124114.6165491566</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.45904484963606</v>
+        <v>97.80132198541996</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.351126531997</v>
+        <v>133.8160834302062</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.10568568406289</v>
+        <v>121.0448642397157</v>
       </c>
       <c r="AD3" t="n">
-        <v>78459.04484963606</v>
+        <v>97801.32198541996</v>
       </c>
       <c r="AE3" t="n">
-        <v>107351.126531997</v>
+        <v>133816.0834302062</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.932250674041153e-06</v>
+        <v>8.811105882000964e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.429012345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>97105.68568406289</v>
+        <v>121044.8642397157</v>
       </c>
     </row>
   </sheetData>
